--- a/results.xlsx
+++ b/results.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Avg</t>
   </si>
   <si>
-    <t xml:space="preserve">Discover + GMM (*)</t>
+    <t xml:space="preserve">Discover + GMM*</t>
   </si>
   <si>
     <t xml:space="preserve">Discover + HDBSCAN</t>
@@ -40,64 +40,64 @@
     <t xml:space="preserve">Affinity Propagation</t>
   </si>
   <si>
-    <t xml:space="preserve">Kmeans (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMM (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectral Clustering (*)</t>
+    <t xml:space="preserve">Kmeans*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMM*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectral Clustering*</t>
   </si>
   <si>
     <t xml:space="preserve">HDBSCAN</t>
   </si>
   <si>
-    <t xml:space="preserve">PCA+ Kmeans (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCA + GMM (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCA + HDBSCAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xgboost features + GMM (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xgboost features + HDBSCAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI features + GMM (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI features + HDBSCAN</t>
+    <t xml:space="preserve">PCA50+ Kmeans*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA50 + GMM*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA50 + HDBSCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xgboost+GMM*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xgboost+HDBSCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI+GMM*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI+HDBSCAN</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset name</t>
   </si>
   <si>
-    <t xml:space="preserve">BRCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIRP</t>
+    <t xml:space="preserve">BRCA ARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRP ARI</t>
   </si>
   <si>
     <t xml:space="preserve">Average</t>
   </si>
   <si>
-    <t xml:space="preserve">PCA + Kmeans (*)</t>
+    <t xml:space="preserve">PCA + Kmeans*</t>
   </si>
   <si>
     <t xml:space="preserve">scedar</t>
   </si>
   <si>
-    <t xml:space="preserve">scRNA (*)</t>
+    <t xml:space="preserve">scRNA*</t>
   </si>
   <si>
     <t xml:space="preserve">raceid</t>
   </si>
   <si>
-    <t xml:space="preserve">Soup (*)</t>
+    <t xml:space="preserve">Soup*</t>
   </si>
   <si>
     <t xml:space="preserve">scanpy-seurat</t>
@@ -385,12 +385,13 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,31 +730,31 @@
         <v>-0.02</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.9</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -770,34 +771,34 @@
         <v>-0.05</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>-0.06</v>
+        <v>0.24</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.06</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.59</v>
       </c>
       <c r="K10" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L10" s="4" t="n">
         <v>0.01</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0.27</v>
@@ -811,34 +812,34 @@
         <v>-0.07</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>-0.01</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="F11" s="4" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>0.01</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>0.02</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>0.1</v>
@@ -1024,15 +1025,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0</v>
@@ -1166,10 +1168,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0.2</v>
@@ -1183,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>0</v>
@@ -1244,6 +1246,9 @@
       <c r="D15" s="10" t="n">
         <v>0.35</v>
       </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1264,12 +1269,13 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
